--- a/biology/Zoologie/Conus_capreolus/Conus_capreolus.xlsx
+++ b/biology/Zoologie/Conus_capreolus/Conus_capreolus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus capreolus est une espèce de mollusques gastéropodes marins de la famille des Conidae.
 Comme toutes les espèces du genre Conus, ces escargots sont prédateurs et venimeux. Ils sont capables de « piquer » les humains et doivent donc être manipulés avec précaution, voire pas du tout.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La taille de la coquille varie entre 36 mm et 65 mm.
 </t>
@@ -543,11 +557,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce marine est donc présente au large de l'Inde orientale et dans la mer d'Andaman.
-Niveau de risque d’extinction de l’espèce
-Selon l'analyse de l'UICN réalisée en 2011 pour la définition du niveau de risque d'extinction, cette espèce est présente à l'ouest et au nord du golfe du Bengale et à l'est de la mer d'Andaman. On sait peu de choses sur l'état de sa population, son habitat, son écologie ou les menaces potentielles. Elle est actuellement inscrite dans la catégorie Données insuffisantes[1].
 </t>
         </is>
       </c>
@@ -573,19 +587,130 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Niveau de risque d’extinction de l’espèce</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon l'analyse de l'UICN réalisée en 2011 pour la définition du niveau de risque d'extinction, cette espèce est présente à l'ouest et au nord du golfe du Bengale et à l'est de la mer d'Andaman. On sait peu de choses sur l'état de sa population, son habitat, son écologie ou les menaces potentielles. Elle est actuellement inscrite dans la catégorie Données insuffisantes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Conus_capreolus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_capreolus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Publication originale
-L'espèce Conus capreolus a été décrite pour la première fois en 1985 par le malacologiste allemand Dieter Röckel (d) (1922-2015)[2] dans la publication intitulée « Archiv für Molluskenkunde »[3],[4].
-Synonymes
-Conus (Splinoconus) capreolus Röckel, 1985 · appellation alternative
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Conus capreolus a été décrite pour la première fois en 1985 par le malacologiste allemand Dieter Röckel (d) (1922-2015) dans la publication intitulée « Archiv für Molluskenkunde »,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Conus_capreolus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_capreolus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Conus (Splinoconus) capreolus Röckel, 1985 · appellation alternative
 Conus semisulcatus G. B. Sowerby II, 1870 · non accepté
-Kioconus capreolus (Röckel, 1985) · non accepté
-Identifiants taxinomiques
-Chaque taxon catalogué par les bases de données biologiques et taxonomiques possède un identifiant qui permet d'établir un point de référence. Les identifiants de Conus capreolus dans les principales bases sont les suivants :
+Kioconus capreolus (Röckel, 1985) · non accepté</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Conus_capreolus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_capreolus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Identifiants taxinomiques</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chaque taxon catalogué par les bases de données biologiques et taxonomiques possède un identifiant qui permet d'établir un point de référence. Les identifiants de Conus capreolus dans les principales bases sont les suivants :
 CoL : XX4C - GBIF : 6510881 - iNaturalist : 431895 - IRMNG : 11703976 - TAXREF : 155472 - UICN : 192264 - WoRMS : 426442
 </t>
         </is>
